--- a/biology/Zoologie/Boiga_angulata/Boiga_angulata.xlsx
+++ b/biology/Zoologie/Boiga_angulata/Boiga_angulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga angulata est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga angulata est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur les îles ou provinces de Bohol, Catanduanes, Leyte, Luçon, Mindanao, Negros, Panay, Polillo et Samar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. Elle se rencontre sur les îles ou provinces de Bohol, Catanduanes, Leyte, Luçon, Mindanao, Negros, Panay, Polillo et Samar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa description Peters fait état d'un spécimen long de 1 015 mm dont 240 mm pour la queue.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1861 : Eine zweite Übersicht (vergl. Monatsberichte 1859 p. 269) der von Hrn. F. Jagor auf Malacca, Java, Borneo und den Philippinen gesammelten und dem Kgl. zoologischen Museum übersandten Schlangen. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1862, p. 683-691 (texte intégral).</t>
         </is>
